--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H2">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>9.581334799228889</v>
+        <v>11.749271778256</v>
       </c>
       <c r="R2">
-        <v>86.23201319306001</v>
+        <v>105.743446004304</v>
       </c>
       <c r="S2">
-        <v>0.03169353758967358</v>
+        <v>0.05024245007489993</v>
       </c>
       <c r="T2">
-        <v>0.03169353758967358</v>
+        <v>0.05024245007489993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H3">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>23.90829729274622</v>
+        <v>27.43238627326533</v>
       </c>
       <c r="R3">
-        <v>215.174675634716</v>
+        <v>246.891476459388</v>
       </c>
       <c r="S3">
-        <v>0.07908485976439594</v>
+        <v>0.1173068700581617</v>
       </c>
       <c r="T3">
-        <v>0.07908485976439594</v>
+        <v>0.1173068700581618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H4">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I4">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J4">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>5.199412971265335</v>
+        <v>8.729743474377999</v>
       </c>
       <c r="R4">
-        <v>46.79471674138801</v>
+        <v>78.56769126940199</v>
       </c>
       <c r="S4">
-        <v>0.0171988343902038</v>
+        <v>0.03733028811962881</v>
       </c>
       <c r="T4">
-        <v>0.0171988343902038</v>
+        <v>0.03733028811962882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H5">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I5">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J5">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>14.92409957289067</v>
+        <v>5.534504270872667</v>
       </c>
       <c r="R5">
-        <v>134.316896156016</v>
+        <v>49.810538437854</v>
       </c>
       <c r="S5">
-        <v>0.0493665570316475</v>
+        <v>0.02366674801354499</v>
       </c>
       <c r="T5">
-        <v>0.0493665570316475</v>
+        <v>0.02366674801354499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H6">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I6">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J6">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>3.460348705667778</v>
+        <v>4.125904194383333</v>
       </c>
       <c r="R6">
-        <v>31.14313835101</v>
+        <v>37.13313774945</v>
       </c>
       <c r="S6">
-        <v>0.011446285311446</v>
+        <v>0.01764326669877192</v>
       </c>
       <c r="T6">
-        <v>0.011446285311446</v>
+        <v>0.01764326669877192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H7">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I7">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J7">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>5.28443670450889</v>
+        <v>4.501241453404666</v>
       </c>
       <c r="R7">
-        <v>47.55993034058001</v>
+        <v>40.511173080642</v>
       </c>
       <c r="S7">
-        <v>0.01748007942986006</v>
+        <v>0.01924829072524212</v>
       </c>
       <c r="T7">
-        <v>0.01748007942986006</v>
+        <v>0.01924829072524212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H8">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I8">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J8">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>21.69444669062222</v>
+        <v>23.18561243658667</v>
       </c>
       <c r="R8">
-        <v>195.2500202156</v>
+        <v>208.67051192928</v>
       </c>
       <c r="S8">
-        <v>0.07176179270259309</v>
+        <v>0.09914673839250458</v>
       </c>
       <c r="T8">
-        <v>0.07176179270259309</v>
+        <v>0.09914673839250457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H9">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I9">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J9">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
-        <v>54.13413599979555</v>
+        <v>54.13413599979556</v>
       </c>
       <c r="R9">
         <v>487.20722399816</v>
       </c>
       <c r="S9">
-        <v>0.1790671456686914</v>
+        <v>0.231489378801423</v>
       </c>
       <c r="T9">
-        <v>0.1790671456686914</v>
+        <v>0.231489378801423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H10">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I10">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J10">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>11.77272163965333</v>
+        <v>17.22697820662667</v>
       </c>
       <c r="R10">
-        <v>105.95449475688</v>
+        <v>155.04280385964</v>
       </c>
       <c r="S10">
-        <v>0.03894229808660327</v>
+        <v>0.07366631811936036</v>
       </c>
       <c r="T10">
-        <v>0.03894229808660327</v>
+        <v>0.07366631811936036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H11">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I11">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J11">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>33.79175129290667</v>
+        <v>10.92160207669778</v>
       </c>
       <c r="R11">
-        <v>304.12576163616</v>
+        <v>98.29441869028001</v>
       </c>
       <c r="S11">
-        <v>0.1117777598074155</v>
+        <v>0.04670315381519431</v>
       </c>
       <c r="T11">
-        <v>0.1117777598074155</v>
+        <v>0.04670315381519431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H12">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I12">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J12">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>7.835061825844443</v>
+        <v>8.14191869988889</v>
       </c>
       <c r="R12">
-        <v>70.51555643259999</v>
+        <v>73.27726829900001</v>
       </c>
       <c r="S12">
-        <v>0.02591714324759869</v>
+        <v>0.03481662110754083</v>
       </c>
       <c r="T12">
-        <v>0.02591714324759869</v>
+        <v>0.03481662110754083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H13">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I13">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J13">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>11.96523582342222</v>
+        <v>8.882596452937779</v>
       </c>
       <c r="R13">
-        <v>107.6871224108</v>
+        <v>79.94336807644001</v>
       </c>
       <c r="S13">
-        <v>0.03957910450738669</v>
+        <v>0.03798392081185252</v>
       </c>
       <c r="T13">
-        <v>0.03957910450738669</v>
+        <v>0.03798392081185251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H14">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I14">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J14">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>1.589194572132222</v>
+        <v>2.323889912384</v>
       </c>
       <c r="R14">
-        <v>14.30275114919</v>
+        <v>20.915009211456</v>
       </c>
       <c r="S14">
-        <v>0.005256803875930876</v>
+        <v>0.009937460389553404</v>
       </c>
       <c r="T14">
-        <v>0.005256803875930876</v>
+        <v>0.009937460389553404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H15">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I15">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J15">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>3.965515983181555</v>
+        <v>5.425855060314666</v>
       </c>
       <c r="R15">
-        <v>35.689643848634</v>
+        <v>48.832695542832</v>
       </c>
       <c r="S15">
-        <v>0.01311729863416639</v>
+        <v>0.02320214027953716</v>
       </c>
       <c r="T15">
-        <v>0.01311729863416639</v>
+        <v>0.02320214027953716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H16">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I16">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J16">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>0.8623932933513334</v>
+        <v>1.726657037192</v>
       </c>
       <c r="R16">
-        <v>7.761539640162001</v>
+        <v>15.539913334728</v>
       </c>
       <c r="S16">
-        <v>0.002852660389459786</v>
+        <v>0.007383562285804116</v>
       </c>
       <c r="T16">
-        <v>0.002852660389459785</v>
+        <v>0.007383562285804117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H17">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I17">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J17">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>2.475364709842667</v>
+        <v>1.094670281517333</v>
       </c>
       <c r="R17">
-        <v>22.278282388584</v>
+        <v>9.852032533656001</v>
       </c>
       <c r="S17">
-        <v>0.008188114299676067</v>
+        <v>0.004681049005045231</v>
       </c>
       <c r="T17">
-        <v>0.008188114299676067</v>
+        <v>0.004681049005045232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H18">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I18">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J18">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>0.5739458536794444</v>
+        <v>0.8160630988666666</v>
       </c>
       <c r="R18">
-        <v>5.165512683115</v>
+        <v>7.3445678898</v>
       </c>
       <c r="S18">
-        <v>0.001898521956407445</v>
+        <v>0.003489663893779006</v>
       </c>
       <c r="T18">
-        <v>0.001898521956407445</v>
+        <v>0.003489663893779006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1457676666666667</v>
+        <v>0.199448</v>
       </c>
       <c r="H19">
-        <v>0.437303</v>
+        <v>0.598344</v>
       </c>
       <c r="I19">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J19">
-        <v>0.03421270785661711</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>0.8764956348522223</v>
+        <v>0.8903011015653333</v>
       </c>
       <c r="R19">
-        <v>7.888460713670001</v>
+        <v>8.012709914087999</v>
       </c>
       <c r="S19">
-        <v>0.002899308700976549</v>
+        <v>0.003807121793693352</v>
       </c>
       <c r="T19">
-        <v>0.002899308700976549</v>
+        <v>0.003807121793693352</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H20">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I20">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J20">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N20">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q20">
-        <v>9.936231892377776</v>
+        <v>4.693458011997333</v>
       </c>
       <c r="R20">
-        <v>89.4260870314</v>
+        <v>42.241122107976</v>
       </c>
       <c r="S20">
-        <v>0.03286748094911922</v>
+        <v>0.02007025067569061</v>
       </c>
       <c r="T20">
-        <v>0.03286748094911922</v>
+        <v>0.02007025067569061</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H21">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I21">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J21">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q21">
-        <v>24.79387173400444</v>
+        <v>10.95836027733578</v>
       </c>
       <c r="R21">
-        <v>223.14484560604</v>
+        <v>98.625242496022</v>
       </c>
       <c r="S21">
-        <v>0.08201419971865058</v>
+        <v>0.04686033990257511</v>
       </c>
       <c r="T21">
-        <v>0.08201419971865058</v>
+        <v>0.04686033990257511</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H22">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I22">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J22">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N22">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O22">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P22">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q22">
-        <v>5.392001643746667</v>
+        <v>3.487253101790333</v>
       </c>
       <c r="R22">
-        <v>48.52801479372</v>
+        <v>31.38527791611299</v>
       </c>
       <c r="S22">
-        <v>0.01783588720784709</v>
+        <v>0.01491225525904446</v>
       </c>
       <c r="T22">
-        <v>0.01783588720784709</v>
+        <v>0.01491225525904446</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H23">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I23">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J23">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N23">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q23">
-        <v>15.47689515589333</v>
+        <v>2.210857311227889</v>
       </c>
       <c r="R23">
-        <v>139.29205640304</v>
+        <v>19.897715801051</v>
       </c>
       <c r="S23">
-        <v>0.05119511724339488</v>
+        <v>0.009454108320795235</v>
       </c>
       <c r="T23">
-        <v>0.05119511724339487</v>
+        <v>0.009454108320795237</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H24">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I24">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J24">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N24">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O24">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P24">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q24">
-        <v>3.588521629655555</v>
+        <v>1.648166666269444</v>
       </c>
       <c r="R24">
-        <v>32.2966946669</v>
+        <v>14.833499996425</v>
       </c>
       <c r="S24">
-        <v>0.01187026103815914</v>
+        <v>0.007047920331403583</v>
       </c>
       <c r="T24">
-        <v>0.01187026103815914</v>
+        <v>0.007047920331403584</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.9113933333333333</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H25">
-        <v>2.73418</v>
+        <v>1.208449</v>
       </c>
       <c r="I25">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J25">
-        <v>0.2139104958516301</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N25">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q25">
-        <v>5.480174695577778</v>
+        <v>1.798101887685889</v>
       </c>
       <c r="R25">
-        <v>49.3215722602</v>
+        <v>16.182916989173</v>
       </c>
       <c r="S25">
-        <v>0.01812754969445913</v>
+        <v>0.007689076057363219</v>
       </c>
       <c r="T25">
-        <v>0.01812754969445913</v>
+        <v>0.007689076057363219</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H26">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I26">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J26">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N26">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q26">
-        <v>0.74483036229</v>
+        <v>2.311496485341334</v>
       </c>
       <c r="R26">
-        <v>6.70347326061</v>
+        <v>20.803468368072</v>
       </c>
       <c r="S26">
-        <v>0.002463780838455635</v>
+        <v>0.009884463390998955</v>
       </c>
       <c r="T26">
-        <v>0.002463780838455635</v>
+        <v>0.009884463390998953</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H27">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I27">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J27">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>81.613078</v>
       </c>
       <c r="O27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q27">
-        <v>1.858574625294</v>
+        <v>5.396918690103778</v>
       </c>
       <c r="R27">
-        <v>16.727171627646</v>
+        <v>48.57226821093401</v>
       </c>
       <c r="S27">
-        <v>0.006147870415164865</v>
+        <v>0.02307840204595915</v>
       </c>
       <c r="T27">
-        <v>0.006147870415164864</v>
+        <v>0.02307840204595915</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H28">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I28">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J28">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N28">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O28">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P28">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q28">
-        <v>0.4041900975420001</v>
+        <v>1.717448684462333</v>
       </c>
       <c r="R28">
-        <v>3.637710877878</v>
+        <v>15.457038160161</v>
       </c>
       <c r="S28">
-        <v>0.001336996808717318</v>
+        <v>0.007344185360065746</v>
       </c>
       <c r="T28">
-        <v>0.001336996808717318</v>
+        <v>0.007344185360065746</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H29">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I29">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J29">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N29">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q29">
-        <v>1.160164290744</v>
+        <v>1.088832347371889</v>
       </c>
       <c r="R29">
-        <v>10.441478616696</v>
+        <v>9.799491126347002</v>
       </c>
       <c r="S29">
-        <v>0.003837639674364704</v>
+        <v>0.004656084724672906</v>
       </c>
       <c r="T29">
-        <v>0.003837639674364702</v>
+        <v>0.004656084724672906</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H30">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I30">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J30">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N30">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O30">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P30">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q30">
-        <v>0.268999344465</v>
+        <v>0.8117109914694446</v>
       </c>
       <c r="R30">
-        <v>2.420994100185</v>
+        <v>7.305398923225001</v>
       </c>
       <c r="S30">
-        <v>0.0008898072151789508</v>
+        <v>0.003471053332822352</v>
       </c>
       <c r="T30">
-        <v>0.0008898072151789505</v>
+        <v>0.003471053332822352</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.068319</v>
+        <v>0.1983843333333334</v>
       </c>
       <c r="H31">
-        <v>0.204957</v>
+        <v>0.595153</v>
       </c>
       <c r="I31">
-        <v>0.01603495508644733</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="J31">
-        <v>0.01603495508644732</v>
+        <v>0.05222100706759049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N31">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q31">
-        <v>0.4107996419700001</v>
+        <v>0.885553078997889</v>
       </c>
       <c r="R31">
-        <v>3.69719677773</v>
+        <v>7.969977710981</v>
       </c>
       <c r="S31">
-        <v>0.001358860134565852</v>
+        <v>0.003786818213071378</v>
       </c>
       <c r="T31">
-        <v>0.001358860134565851</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.266402</v>
-      </c>
-      <c r="H32">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J32">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.90224333333333</v>
-      </c>
-      <c r="N32">
-        <v>32.70673</v>
-      </c>
-      <c r="O32">
-        <v>0.1536506229779223</v>
-      </c>
-      <c r="P32">
-        <v>0.1536506229779223</v>
-      </c>
-      <c r="Q32">
-        <v>2.904379428486667</v>
-      </c>
-      <c r="R32">
-        <v>26.13941485638</v>
-      </c>
-      <c r="S32">
-        <v>0.009607227022149887</v>
-      </c>
-      <c r="T32">
-        <v>0.009607227022149886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.266402</v>
-      </c>
-      <c r="H33">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J33">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>27.20435933333333</v>
-      </c>
-      <c r="N33">
-        <v>81.613078</v>
-      </c>
-      <c r="O33">
-        <v>0.3834042803375869</v>
-      </c>
-      <c r="P33">
-        <v>0.3834042803375869</v>
-      </c>
-      <c r="Q33">
-        <v>7.247295735118668</v>
-      </c>
-      <c r="R33">
-        <v>65.22566161606801</v>
-      </c>
-      <c r="S33">
-        <v>0.02397290613651767</v>
-      </c>
-      <c r="T33">
-        <v>0.02397290613651766</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.266402</v>
-      </c>
-      <c r="H34">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J34">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.916218000000001</v>
-      </c>
-      <c r="N34">
-        <v>17.748654</v>
-      </c>
-      <c r="O34">
-        <v>0.08338014054353929</v>
-      </c>
-      <c r="P34">
-        <v>0.08338014054353927</v>
-      </c>
-      <c r="Q34">
-        <v>1.576092307636</v>
-      </c>
-      <c r="R34">
-        <v>14.184830768724</v>
-      </c>
-      <c r="S34">
-        <v>0.005213463660708017</v>
-      </c>
-      <c r="T34">
-        <v>0.005213463660708015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.266402</v>
-      </c>
-      <c r="H35">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J35">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>16.981576</v>
-      </c>
-      <c r="N35">
-        <v>50.944728</v>
-      </c>
-      <c r="O35">
-        <v>0.2393296179300346</v>
-      </c>
-      <c r="P35">
-        <v>0.2393296179300346</v>
-      </c>
-      <c r="Q35">
-        <v>4.523925809552001</v>
-      </c>
-      <c r="R35">
-        <v>40.715332285968</v>
-      </c>
-      <c r="S35">
-        <v>0.014964429873536</v>
-      </c>
-      <c r="T35">
-        <v>0.01496442987353599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.266402</v>
-      </c>
-      <c r="H36">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J36">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>3.937401666666666</v>
-      </c>
-      <c r="N36">
-        <v>11.812205</v>
-      </c>
-      <c r="O36">
-        <v>0.05549171858491902</v>
-      </c>
-      <c r="P36">
-        <v>0.05549171858491901</v>
-      </c>
-      <c r="Q36">
-        <v>1.048931678803333</v>
-      </c>
-      <c r="R36">
-        <v>9.44038510923</v>
-      </c>
-      <c r="S36">
-        <v>0.003469699816128791</v>
-      </c>
-      <c r="T36">
-        <v>0.00346969981612879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.266402</v>
-      </c>
-      <c r="H37">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J37">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>6.012963333333334</v>
-      </c>
-      <c r="N37">
-        <v>18.03889</v>
-      </c>
-      <c r="O37">
-        <v>0.08474361962599786</v>
-      </c>
-      <c r="P37">
-        <v>0.08474361962599786</v>
-      </c>
-      <c r="Q37">
-        <v>1.601865457926667</v>
-      </c>
-      <c r="R37">
-        <v>14.41678912134</v>
-      </c>
-      <c r="S37">
-        <v>0.005298717158749572</v>
-      </c>
-      <c r="T37">
-        <v>0.005298717158749571</v>
+        <v>0.003786818213071377</v>
       </c>
     </row>
   </sheetData>
